--- a/Data/Assumption/Zone/ZoneB1.xlsx
+++ b/Data/Assumption/Zone/ZoneB1.xlsx
@@ -648,7 +648,7 @@
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/Assumption/Zone/ZoneB1.xlsx
+++ b/Data/Assumption/Zone/ZoneB1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TechAssumption" sheetId="6" r:id="rId1"/>
@@ -29,9 +29,6 @@
     <t>Ratio of Power Loses to final consumption</t>
   </si>
   <si>
-    <t>PowerLosesRatio</t>
-  </si>
-  <si>
     <t>COA_SUB_LN</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>REW_PV_CSP_6h</t>
+  </si>
+  <si>
+    <t>PowerLossRatio</t>
   </si>
 </sst>
 </file>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -551,7 +551,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -647,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -658,167 +658,167 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Assumption/Zone/ZoneB1.xlsx
+++ b/Data/Assumption/Zone/ZoneB1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TechAssumption" sheetId="6" r:id="rId1"/>
@@ -95,18 +95,6 @@
     <t>BIO_IGCC_CHP</t>
   </si>
   <si>
-    <t>COA_CHP_BP</t>
-  </si>
-  <si>
-    <t>COA_CHP_EC</t>
-  </si>
-  <si>
-    <t>COA_CHP_BP_CCS</t>
-  </si>
-  <si>
-    <t>GAS_CHP_EC_CCS</t>
-  </si>
-  <si>
     <t>OIL_ST</t>
   </si>
   <si>
@@ -132,6 +120,18 @@
   </si>
   <si>
     <t>PowerLossRatio</t>
+  </si>
+  <si>
+    <t>COA_CHP_BP_DH</t>
+  </si>
+  <si>
+    <t>COA_CHP_EC_DH</t>
+  </si>
+  <si>
+    <t>COA_CHP_EC_CCS_DH</t>
+  </si>
+  <si>
+    <t>GAS_CHP_EC_CCS_DH</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -551,7 +551,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -658,7 +658,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -738,17 +738,17 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -763,12 +763,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -798,27 +798,27 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Assumption/Zone/ZoneB1.xlsx
+++ b/Data/Assumption/Zone/ZoneB1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TechAssumption" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Unit</t>
   </si>
@@ -26,9 +26,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Ratio of Power Loses to final consumption</t>
-  </si>
-  <si>
     <t>COA_SUB_LN</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>REW_PV_CSP_6h</t>
   </si>
   <si>
-    <t>PowerLossRatio</t>
-  </si>
-  <si>
     <t>COA_CHP_BP_DH</t>
   </si>
   <si>
@@ -132,6 +126,18 @@
   </si>
   <si>
     <t>GAS_CHP_EC_CCS_DH</t>
+  </si>
+  <si>
+    <t>PowerDistLossRate</t>
+  </si>
+  <si>
+    <t>Ratio of power distribution loss to final consumption</t>
+  </si>
+  <si>
+    <t>HeatDistLossRate</t>
+  </si>
+  <si>
+    <t>Ratio of heat distribution loss to final consumption</t>
   </si>
 </sst>
 </file>
@@ -233,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -249,7 +255,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -535,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -551,7 +557,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -595,10 +601,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -634,6 +640,50 @@
         <v>3</v>
       </c>
       <c r="N2" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3</v>
+      </c>
+      <c r="L3" s="6">
+        <v>3</v>
+      </c>
+      <c r="M3" s="6">
+        <v>3</v>
+      </c>
+      <c r="N3" s="6">
         <v>3</v>
       </c>
     </row>
@@ -647,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
@@ -658,167 +708,167 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
